--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,30 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20191231-turnout/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C9674F-7B1F-D748-87F6-20AF44903C5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C723B452-827F-0448-A621-A7E040E59301}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26100" windowHeight="16560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30860" windowHeight="18960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="turnout_age" sheetId="1" r:id="rId1"/>
-    <sheet name="source" sheetId="2" r:id="rId2"/>
-    <sheet name="layout" sheetId="3" r:id="rId3"/>
+    <sheet name="breakdown" sheetId="4" r:id="rId2"/>
+    <sheet name="source" sheetId="2" r:id="rId3"/>
+    <sheet name="layout" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">turnout_age!$A$1:$Y$18</definedName>
     <definedName name="TitleRegion1.A3.Y18.1">turnout_age!$A$2:$Y$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t>Age Group</t>
   </si>
@@ -187,6 +193,63 @@
   </si>
   <si>
     <t>turnout</t>
+  </si>
+  <si>
+    <t>y2018</t>
+  </si>
+  <si>
+    <t>y2016</t>
+  </si>
+  <si>
+    <t>y2014</t>
+  </si>
+  <si>
+    <t>y2012</t>
+  </si>
+  <si>
+    <t>y2010</t>
+  </si>
+  <si>
+    <t>y2008</t>
+  </si>
+  <si>
+    <t>prez_change</t>
+  </si>
+  <si>
+    <t>midterm_change</t>
+  </si>
+  <si>
+    <t>bracket</t>
+  </si>
+  <si>
+    <t>breakdown</t>
+  </si>
+  <si>
+    <t>Age group</t>
+  </si>
+  <si>
+    <t>Overall voter turnout for group in 2008</t>
+  </si>
+  <si>
+    <t>Overall voter turnout for group in 2010</t>
+  </si>
+  <si>
+    <t>Overall voter turnout for group in 2012</t>
+  </si>
+  <si>
+    <t>Overall voter turnout for group in 2014</t>
+  </si>
+  <si>
+    <t>Overall voter turnout for group in 2016</t>
+  </si>
+  <si>
+    <t>Overall voter turnout for group in 2018</t>
+  </si>
+  <si>
+    <t>Turnout percentage change betwee between 2008 and 2016</t>
+  </si>
+  <si>
+    <t>Turnout percentage change betwee between 2010 and 2018</t>
   </si>
 </sst>
 </file>
@@ -265,22 +328,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +627,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="V3" sqref="V3:V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -591,108 +654,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-    </row>
-    <row r="2" spans="1:25" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+    </row>
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1929,33 +1992,33 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1968,6 +2031,549 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA2ACF7-DD0D-0145-9C1E-2007D8FF348F}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>58.1</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>51.5</v>
+      </c>
+      <c r="E2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F2">
+        <v>50.3</v>
+      </c>
+      <c r="G2">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <f>(F2-B2)/B2</f>
+        <v>-0.13425129087779697</v>
+      </c>
+      <c r="I2">
+        <f>(G2-C2)/C2</f>
+        <v>0.60869565217391308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>61.2</v>
+      </c>
+      <c r="C3">
+        <v>24.3</v>
+      </c>
+      <c r="D3">
+        <v>57</v>
+      </c>
+      <c r="E3">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F3">
+        <v>49.8</v>
+      </c>
+      <c r="G3">
+        <v>37.5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H17" si="0">(F3-B3)/B3</f>
+        <v>-0.18627450980392166</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I17" si="1">(G3-C3)/C3</f>
+        <v>0.54320987654320985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>65.5</v>
+      </c>
+      <c r="C4">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D4">
+        <v>61.4</v>
+      </c>
+      <c r="E4">
+        <v>26.3</v>
+      </c>
+      <c r="F4">
+        <v>58.9</v>
+      </c>
+      <c r="G4">
+        <v>44.2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>-0.10076335877862598</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.36842105263157915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>68.3</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>63.6</v>
+      </c>
+      <c r="G5">
+        <v>50.7</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-6.8814055636895993E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.23658536585365861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="C6">
+        <v>45.5</v>
+      </c>
+      <c r="D6">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E6">
+        <v>40.6</v>
+      </c>
+      <c r="F6">
+        <v>68</v>
+      </c>
+      <c r="G6">
+        <v>57.2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-2.0172910662824287E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.25714285714285723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>72.5</v>
+      </c>
+      <c r="C7">
+        <v>52.2</v>
+      </c>
+      <c r="D7">
+        <v>70.7</v>
+      </c>
+      <c r="E7">
+        <v>44</v>
+      </c>
+      <c r="F7">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="G7">
+        <v>60.9</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-4.9655172413793025E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>76.2</v>
+      </c>
+      <c r="C8">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="E8">
+        <v>49.2</v>
+      </c>
+      <c r="F8">
+        <v>71.8</v>
+      </c>
+      <c r="G8">
+        <v>59.7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-5.7742782152231047E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>6.6071428571428628E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="C9">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>76.5</v>
+      </c>
+      <c r="E9">
+        <v>53.9</v>
+      </c>
+      <c r="F9">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="G9">
+        <v>61.8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-8.4170854271356649E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>-3.2258064516129492E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>82.6</v>
+      </c>
+      <c r="C10">
+        <v>67.7</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>60.8</v>
+      </c>
+      <c r="F10">
+        <v>76.8</v>
+      </c>
+      <c r="G10">
+        <v>68.2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-7.0217917675544764E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>7.385524372230428E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>84.1</v>
+      </c>
+      <c r="C11">
+        <v>73.2</v>
+      </c>
+      <c r="D11">
+        <v>83.1</v>
+      </c>
+      <c r="E11">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="F11">
+        <v>80.7</v>
+      </c>
+      <c r="G11">
+        <v>75.8</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-4.0428061831153293E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>3.5519125683060031E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>84.3</v>
+      </c>
+      <c r="C12">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="D12">
+        <v>85</v>
+      </c>
+      <c r="E12">
+        <v>73.3</v>
+      </c>
+      <c r="F12">
+        <v>83.2</v>
+      </c>
+      <c r="G12">
+        <v>81.7</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-1.304863582443647E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>9.0787716955941206E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>83.7</v>
+      </c>
+      <c r="C13">
+        <v>76.3</v>
+      </c>
+      <c r="D13">
+        <v>85.8</v>
+      </c>
+      <c r="E13">
+        <v>74.3</v>
+      </c>
+      <c r="F13">
+        <v>86.4</v>
+      </c>
+      <c r="G13">
+        <v>84.9</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>3.2258064516129066E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0.11271297509829631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>79.5</v>
+      </c>
+      <c r="C14">
+        <v>73</v>
+      </c>
+      <c r="D14">
+        <v>82.2</v>
+      </c>
+      <c r="E14">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F14">
+        <v>82.6</v>
+      </c>
+      <c r="G14">
+        <v>83.9</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>3.8993710691823828E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.14931506849315077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>75.3</v>
+      </c>
+      <c r="C15">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="D15">
+        <v>76.3</v>
+      </c>
+      <c r="E15">
+        <v>66.2</v>
+      </c>
+      <c r="F15">
+        <v>77.5</v>
+      </c>
+      <c r="G15">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>2.9216467463479456E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.13213213213213232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>54.2</v>
+      </c>
+      <c r="D16">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E16">
+        <v>52.5</v>
+      </c>
+      <c r="F16">
+        <v>65.2</v>
+      </c>
+      <c r="G16">
+        <v>56.7</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>-2.6865671641791003E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>4.6125461254612546E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="C17">
+        <v>52.6</v>
+      </c>
+      <c r="D17">
+        <v>71.7</v>
+      </c>
+      <c r="E17">
+        <v>47.7</v>
+      </c>
+      <c r="F17">
+        <v>69.8</v>
+      </c>
+      <c r="G17">
+        <v>60.9</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-4.9046321525885672E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0.15779467680608358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E120D4CF-B057-B949-ACD6-209BF789931B}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1986,14 +2592,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2013,12 +2619,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564CC092-E886-9C46-A180-432D6DE95EF4}">
-  <dimension ref="A2:A27"/>
+  <dimension ref="A2:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2027,7 +2633,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2101,59 +2707,136 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
